--- a/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F2" t="n">
-        <v>34.2558144418031</v>
+        <v>34.25399772792219</v>
       </c>
       <c r="G2" t="n">
-        <v>33.64834252480985</v>
+        <v>33.6395094970174</v>
       </c>
       <c r="H2" t="n">
-        <v>34.8693331269561</v>
+        <v>34.85388729947109</v>
       </c>
       <c r="I2" t="n">
-        <v>3.827609991389435</v>
+        <v>3.827461913487237</v>
       </c>
       <c r="J2" t="n">
-        <v>3.800447195311885</v>
+        <v>3.799297483839147</v>
       </c>
       <c r="K2" t="n">
-        <v>3.855047874684845</v>
+        <v>3.855581824218129</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2684010579448534</v>
+        <v>0.2683929549749497</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2663070363768767</v>
+        <v>0.2662581820786378</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2704986139555573</v>
+        <v>0.2705161574980194</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002443495505495704</v>
+        <v>0.0002459714933248479</v>
       </c>
       <c r="G3" t="n">
-        <v>1.120434844142419e-07</v>
+        <v>1.681737673308824e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006759703229819256</v>
+        <v>0.0006798921009109765</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002295947139123952</v>
+        <v>0.0002310262906615691</v>
       </c>
       <c r="J3" t="n">
-        <v>1.060972509497172e-07</v>
+        <v>1.598542953597845e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000635329530026411</v>
+        <v>0.0006386275035652398</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002449501726653579</v>
+        <v>0.0002465643076623771</v>
       </c>
       <c r="M3" t="n">
-        <v>1.119849089703388e-07</v>
+        <v>1.683731490790696e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0006779604072972446</v>
+        <v>0.0006818479053533153</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F4" t="n">
-        <v>34.25605879135364</v>
+        <v>34.25424369941551</v>
       </c>
       <c r="G4" t="n">
-        <v>33.64834263685334</v>
+        <v>33.63950966519116</v>
       </c>
       <c r="H4" t="n">
-        <v>34.87000909727909</v>
+        <v>34.854567191572</v>
       </c>
       <c r="I4" t="n">
-        <v>3.827839586103347</v>
+        <v>3.827692939777899</v>
       </c>
       <c r="J4" t="n">
-        <v>3.800447301409136</v>
+        <v>3.799297643693441</v>
       </c>
       <c r="K4" t="n">
-        <v>3.855683204214872</v>
+        <v>3.856220451721695</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2686460081175187</v>
+        <v>0.2686395192826122</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2663071483617857</v>
+        <v>0.2662583504517869</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2711765743628546</v>
+        <v>0.2711980054033727</v>
       </c>
     </row>
   </sheetData>

--- a/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F2" t="n">
-        <v>34.25399772792219</v>
+        <v>34.2546190917304</v>
       </c>
       <c r="G2" t="n">
-        <v>33.6395094970174</v>
+        <v>33.65494406955679</v>
       </c>
       <c r="H2" t="n">
-        <v>34.85388729947109</v>
+        <v>34.87597401633013</v>
       </c>
       <c r="I2" t="n">
-        <v>3.827461913487237</v>
+        <v>3.827526590341443</v>
       </c>
       <c r="J2" t="n">
-        <v>3.799297483839147</v>
+        <v>3.799985332062707</v>
       </c>
       <c r="K2" t="n">
-        <v>3.855581824218129</v>
+        <v>3.854913529396547</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2683929549749497</v>
+        <v>0.2683947526569028</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2662581820786378</v>
+        <v>0.2663134746221297</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2705161574980194</v>
+        <v>0.2705001393067226</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002459714933248479</v>
+        <v>0.0002453897857124177</v>
       </c>
       <c r="G3" t="n">
-        <v>1.681737673308824e-07</v>
+        <v>9.52519424010228e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006798921009109765</v>
+        <v>0.0006785031254740325</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002310262906615691</v>
+        <v>0.0002305434406631316</v>
       </c>
       <c r="J3" t="n">
-        <v>1.598542953597845e-07</v>
+        <v>9.012529177433422e-08</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0006386275035652398</v>
+        <v>0.0006375236797138979</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002465643076623771</v>
+        <v>0.0002459749475615888</v>
       </c>
       <c r="M3" t="n">
-        <v>1.683731490790696e-07</v>
+        <v>9.605756640378798e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0006818479053533153</v>
+        <v>0.0006803661664941629</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F4" t="n">
-        <v>34.25424369941551</v>
+        <v>34.25486448151611</v>
       </c>
       <c r="G4" t="n">
-        <v>33.63950966519116</v>
+        <v>33.65494416480874</v>
       </c>
       <c r="H4" t="n">
-        <v>34.854567191572</v>
+        <v>34.87665251945561</v>
       </c>
       <c r="I4" t="n">
-        <v>3.827692939777899</v>
+        <v>3.827757133782107</v>
       </c>
       <c r="J4" t="n">
-        <v>3.799297643693441</v>
+        <v>3.799985422187999</v>
       </c>
       <c r="K4" t="n">
-        <v>3.856220451721695</v>
+        <v>3.855551053076261</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2686395192826122</v>
+        <v>0.2686407276044644</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2662583504517869</v>
+        <v>0.2663135706796961</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2711980054033727</v>
+        <v>0.2711805054732168</v>
       </c>
     </row>
   </sheetData>
